--- a/BDC_V1/Documents/BDC_Locations of Files,Settings&DBsUsed.xlsx
+++ b/BDC_V1/Documents/BDC_Locations of Files,Settings&DBsUsed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bill_\source\Projects\BDC\BDC_V1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C67483-1569-4BD4-87C9-45D4BBC58082}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA54F6A0-966B-4F5C-83D1-3BE6A1448AB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19785" yWindow="2160" windowWidth="19185" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23310" yWindow="2925" windowWidth="23640" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Files &amp; Locations" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="133">
   <si>
     <t>Item</t>
   </si>
@@ -43,15 +43,6 @@
     <t>C:\ProgramData\ERDC-CERL\SMS BUILDER RED</t>
   </si>
   <si>
-    <t>BRED Installation required</t>
-  </si>
-  <si>
-    <t>BRED &amp; BDC Lookup DBs</t>
-  </si>
-  <si>
-    <t>BRED Error Log</t>
-  </si>
-  <si>
     <t>C:\Users\&lt;USER&gt;\AppData\Roaming\ERDC-CERL\SMS BUILDER RED</t>
   </si>
   <si>
@@ -64,15 +55,6 @@
     <t>BRED project mdb file</t>
   </si>
   <si>
-    <t>BDC project mdb file</t>
-  </si>
-  <si>
-    <t xml:space="preserve">File name as issued by project DM. Typically in a sub folder of User's &lt;DOCUMENTS&gt; folder. This file contains all data collected by inspector (except photos) just like when using BRED. </t>
-  </si>
-  <si>
-    <t>&lt;PROJECT&gt;\&lt;BREDfilename&gt;</t>
-  </si>
-  <si>
     <t>Project Photos of the BRED file</t>
   </si>
   <si>
@@ -82,12 +64,6 @@
     <t>BRED Package</t>
   </si>
   <si>
-    <t>User-selected folder: &lt;PROJECT&gt;\&lt;BREDfilename&gt;.mdb</t>
-  </si>
-  <si>
-    <t>User-selected folder: &lt;PROJECT&gt;\&lt;BREDfilename&gt;.bredpackage</t>
-  </si>
-  <si>
     <t>This is a zipped file containing an Images folder with photos and ImageManifest.csv</t>
   </si>
   <si>
@@ -130,37 +106,12 @@
     <t>BDC &amp; BRED ~ Location of Files &amp; Settings</t>
   </si>
   <si>
-    <t>&lt;PROJECT&gt;\&lt;BREDfilename&gt;\Images</t>
-  </si>
-  <si>
     <t>ImageManifest.csv</t>
   </si>
   <si>
     <t>Contains bred.mdb &amp; all Lookup.XXXX.mdb files (The Lookup file to use is stored in the BRED file: Application. LookupDatabase)</t>
   </si>
   <si>
-    <t>BRED's BRED.mdb</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Linked tables to project's MDB &amp; designated Lookup.xxx.mdb to have both data tables and RO lookup tables in 1 place.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">NOTE: We may extend this concept and do the same for config tables of the BDC project mdb. </t>
-    </r>
-  </si>
-  <si>
-    <t>Calculator Templates</t>
-  </si>
-  <si>
     <t>Calculator Results</t>
   </si>
   <si>
@@ -171,12 +122,6 @@
   </si>
   <si>
     <t>Lookup_XXX.mdb</t>
-  </si>
-  <si>
-    <t>BRED Application</t>
-  </si>
-  <si>
-    <t>BuilderRED.exe is app, folder contains supporting files</t>
   </si>
   <si>
     <t>Collected data</t>
@@ -304,43 +249,10 @@
 (For Army: Lookup_USA.mdb. For USMC: Lookup_USMC.mdb)</t>
   </si>
   <si>
-    <t>User-selected folder: \&lt;ProjectID_ProjectName&gt;</t>
-  </si>
-  <si>
-    <t>BRED file of Inspector (Active)</t>
-  </si>
-  <si>
-    <t>BRED files of Inspector (Processed)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">User-selected folder: \&lt;ProjectID_ProjectName&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Note: The user decides on the location and naming of the folder, but it is highly suggested to have BOTH project ID and name in the Windows folder name to avoid confusion with other projects.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">User-selected folder: \&lt;ProjectID_ProjectName&gt;\Done
-</t>
-  </si>
-  <si>
     <t>This user-specific database holds inspection and section comments for reuse with following BRED files.  It also holds a listing of comments that the inspector marked for needed review/cleanup.</t>
   </si>
   <si>
     <t>BDC's folders for BRED file-specific files</t>
-  </si>
-  <si>
-    <t>\&lt;ProjectID_ProjectName&gt;\&lt;BREDfilename&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;BREDfilename&gt;  equals the inspector's BRED file without .mdb file extension.
@@ -358,27 +270,12 @@
 NOTE: &lt;ProjectID&gt; MUST be the same as &lt;ProjectID&gt; portion in the inspector's BRED file (to avoid using the wrong project or BRED file)</t>
   </si>
   <si>
-    <t>BDC.exe is app, folder contains supporting files This folder is &lt;App Folder&gt;</t>
-  </si>
-  <si>
-    <t>C:\ProgramData\Cardno\BuilderDC\CalculatorTemplates</t>
-  </si>
-  <si>
-    <t>\&lt;ProjectID_ProjectName&gt;\&lt;BREDfilename&gt;\Calculators</t>
-  </si>
-  <si>
     <t>Photos Taken (full res)</t>
   </si>
   <si>
     <t xml:space="preserve">Photos, processed </t>
   </si>
   <si>
-    <t>\&lt;BREDfilename&gt;\PhotosRaw</t>
-  </si>
-  <si>
-    <t>\&lt;BREDfilename&gt;\Photos</t>
-  </si>
-  <si>
     <t>These are processed photos to be used for BREDpackage (zip) file;  resized to project -specified resolution, optionally cropped/rotated by inspector.</t>
   </si>
   <si>
@@ -386,9 +283,60 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">BRED.mdb file
+      <t xml:space="preserve">BDC project mdb file
 </t>
     </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Configuration file ?)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BRED files of Inspector (Processed)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Not used ?)</t>
+    </r>
+  </si>
+  <si>
+    <t>N ?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">BRED file of Inspector (Active)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Is this the same as above? Otherwise, is this both or either?)</t>
+    </r>
+  </si>
+  <si>
+    <t>Note: BuilderRED uses a zip file BRED Package (described above) with an internal folder "\Images\&lt;photos&gt;".
+Should we do the same for compatibility?</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -397,54 +345,262 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(BRED_DB.sdf, Lookup.xxx.mdb)</t>
-    </r>
-  </si>
-  <si>
-    <t>info only</t>
-  </si>
-  <si>
-    <t>tbd</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Note: Yet Unknown where BRED keeps photos and this csv file
-To do: Technical code review of how BuilderRED does it by developer, then review and assess our best appraoch.
+      <t xml:space="preserve">BuilderRED uses a zip file BRED Package (described above) with an internal file named "ImageManifest.csv".
 </t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color theme="4" tint="-0.249977111117893"/>
+        <color theme="8"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Note: BuilderRED uses a zip file named "&lt;BREDfilename&gt;.bredpackage" with an internal file named "ImageManifest.csv".</t>
+      <t>Should we do the same for compatibility?</t>
     </r>
   </si>
   <si>
+    <t>App property</t>
+  </si>
+  <si>
+    <t>ProjectFolder</t>
+  </si>
+  <si>
+    <t>UserSelectedFolder</t>
+  </si>
+  <si>
+    <t>User-selected folder</t>
+  </si>
+  <si>
+    <t>PathUserFolder</t>
+  </si>
+  <si>
+    <t>PathProjectFolder</t>
+  </si>
+  <si>
+    <t>&lt;PathUserFolder&gt;\&lt;PROJECT&gt;</t>
+  </si>
+  <si>
+    <t>&lt;PathProjectFolder&gt;\&lt;BREDfilename&gt;.mdb</t>
+  </si>
+  <si>
+    <t>&lt;PathProjectFolder&gt;\&lt;BREDfilename&gt;.bredpackage</t>
+  </si>
+  <si>
+    <t>BRED Installation folder</t>
+  </si>
+  <si>
+    <t>PathLogFiles</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">NOTE: We NEED TO follow BREDpackage folder construct: To do
+      <t xml:space="preserve">&lt;PathUserFolder&gt;\&lt;ProjectID_ProjectName&gt;.mdb
 </t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color theme="4" tint="-0.249977111117893"/>
+        <color theme="8"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Note: BuilderRED uses a zip file named "&lt;BREDfilename&gt;.bredpackage" with an internal folder "\Images\&lt;photos&gt;".</t>
+      <t>(Why is this in a different folder than BRED Package ?)</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">File name as issued by project DM. This file contains all data collected by inspector (except photos) just like when using BRED. </t>
+  </si>
+  <si>
+    <t>Typically a sub folder of User's &lt;DOCUMENTS&gt; folder. 
+Note: The user decides on the location and naming of the folder, but it is highly suggested to have BOTH project ID and name in the Windows folder name to avoid confusion with other projects.</t>
+  </si>
+  <si>
+    <t>Named Project Folder</t>
+  </si>
+  <si>
+    <t>&lt;PathUserFolder&gt;\&lt;ProjectID_ProjectName&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>PathNamedProject</t>
+  </si>
+  <si>
+    <t>&lt;PathNamedProject&gt;\Done</t>
+  </si>
+  <si>
+    <t>&lt;PathNamedProject&gt;\&lt;BREDfilename&gt;</t>
+  </si>
+  <si>
+    <t>BRED &amp; BDC Lookup DBs Folder</t>
+  </si>
+  <si>
+    <t>BRED Error &amp; Trace Logs Folder</t>
+  </si>
+  <si>
+    <t>BDC Application Folder</t>
+  </si>
+  <si>
+    <t>PathApplication</t>
+  </si>
+  <si>
+    <t>&lt;PathApplication&gt;\BDC.exe</t>
+  </si>
+  <si>
+    <t>BDC Installation folder</t>
+  </si>
+  <si>
+    <t>BDC.exe is app</t>
+  </si>
+  <si>
+    <t>PathBuilderDC</t>
+  </si>
+  <si>
+    <t>&lt;PathBuilderDC&gt;\BuilderDC.mdb</t>
+  </si>
+  <si>
+    <t>&lt;PathBuilderDC&gt;\&lt;First&gt;_&lt;LastName&gt;.mdb</t>
+  </si>
+  <si>
+    <t>&lt;PathBuilderDC&gt;\CalculatorTemplates</t>
+  </si>
+  <si>
+    <t>PathBredFiles</t>
+  </si>
+  <si>
+    <t>&lt;PathBredFiles&gt;\Calculators</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;PathBredFiles&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\PhotosRaw</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;PathBredFiles&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\Photos</t>
+    </r>
+  </si>
+  <si>
+    <t>FileBredPackage</t>
+  </si>
+  <si>
+    <t>&lt;FileBredPackage&gt;\ImageManifest.csv
+(stored in zip archive)</t>
+  </si>
+  <si>
+    <t>&lt;FileBredPackage&gt;\Images\*.*
+(stored in zip archive)</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Instance</t>
+  </si>
+  <si>
+    <t>BRED.mdb file</t>
+  </si>
+  <si>
+    <t>FileBredData</t>
+  </si>
+  <si>
+    <t>FileLookupData</t>
+  </si>
+  <si>
+    <t>FileBuilderData</t>
+  </si>
+  <si>
+    <t>This is the designated Lookup DB, as specified in the BuilderDC file. 
+(For Army: Lookup_USA.mdb. For USMC: Lookup_USMC.mdb)</t>
+  </si>
+  <si>
+    <t>&lt;PathBuilderDC&gt;\Lookup_XXX.mdb</t>
+  </si>
+  <si>
+    <t>C:\ProgramData\ERDC-CERL\SMS BUILDER RED\BRED.mdb</t>
+  </si>
+  <si>
+    <t>C:\ProgramData\ERDC-CERL\SMS BUILDER RED\Lookup_XXX.mdb</t>
+  </si>
+  <si>
+    <t>BDC Error &amp; Trace Logs Folder</t>
+  </si>
+  <si>
+    <t>C:\Users\&lt;USER&gt;\AppData\BuilderDC\Logs</t>
+  </si>
+  <si>
+    <t>FileUserCache</t>
+  </si>
+  <si>
+    <t>PathCalcTemplates</t>
+  </si>
+  <si>
+    <t>Calculator Templates Folder</t>
+  </si>
+  <si>
+    <t>BuilderDC data Folder</t>
+  </si>
+  <si>
+    <t>FileConfigData</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>PathCalculators</t>
+  </si>
+  <si>
+    <t>PathPhotos</t>
+  </si>
+  <si>
+    <t>PathPhotosRaw</t>
+  </si>
+  <si>
+    <t>on-demand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,16 +638,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="9"/>
-      <color theme="1"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color theme="4" tint="-0.249977111117893"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -547,7 +710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -578,10 +741,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1609,36 +1787,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F27"/>
+  <sheetPr codeName="Sheet1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22:F27"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.81640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="44.08984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="58.453125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="51.1796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="67.81640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="4.36328125" style="5" customWidth="1"/>
     <col min="5" max="5" width="3.90625" style="5" customWidth="1"/>
-    <col min="6" max="16384" width="8.90625" style="1"/>
+    <col min="6" max="6" width="15.7265625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="D2" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1649,423 +1831,635 @@
         <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="35.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="36" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="D6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="48" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>4</v>
+        <v>119</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="24" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="4"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="40.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="28" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="36" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="B22" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="B23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="111.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="E24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="108" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="48" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="108" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="B32" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="48" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="40.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="24" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="36" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="60" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>94</v>
+      <c r="D33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="68" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2104,7 +2498,7 @@
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -2178,7 +2572,7 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="12" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -2189,7 +2583,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="10" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
@@ -2287,17 +2681,17 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="12" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
@@ -2308,17 +2702,17 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="9" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -2329,17 +2723,17 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
@@ -2349,18 +2743,18 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="K17" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -2370,7 +2764,7 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -2379,7 +2773,7 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="9" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -2388,7 +2782,7 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="9"/>
       <c r="B22" s="9" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -2397,7 +2791,7 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="9"/>
       <c r="B23" s="9" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>

--- a/BDC_V1/Documents/BDC_Locations of Files,Settings&DBsUsed.xlsx
+++ b/BDC_V1/Documents/BDC_Locations of Files,Settings&DBsUsed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bill_\source\Projects\BDC\BDC_V1\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA54F6A0-966B-4F5C-83D1-3BE6A1448AB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8374B41D-1F08-4D66-9986-7004241BBC34}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23310" yWindow="2925" windowWidth="23640" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26355" yWindow="1680" windowWidth="23640" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Files &amp; Locations" sheetId="1" r:id="rId1"/>
@@ -563,9 +563,6 @@
     <t>BDC Error &amp; Trace Logs Folder</t>
   </si>
   <si>
-    <t>C:\Users\&lt;USER&gt;\AppData\BuilderDC\Logs</t>
-  </si>
-  <si>
     <t>FileUserCache</t>
   </si>
   <si>
@@ -594,6 +591,9 @@
   </si>
   <si>
     <t>on-demand</t>
+  </si>
+  <si>
+    <t>C:\Users\&lt;UserName&gt;\AppData\Roaming\BuilderDC\Logs</t>
   </si>
 </sst>
 </file>
@@ -1794,7 +1794,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2009,7 +2009,7 @@
         <v>121</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>17</v>
@@ -2026,7 +2026,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>55</v>
@@ -2108,7 +2108,7 @@
         <v>16</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>112</v>
@@ -2116,7 +2116,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>103</v>
@@ -2131,7 +2131,7 @@
         <v>16</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>111</v>
@@ -2244,7 +2244,7 @@
         <v>16</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G24" s="19" t="s">
         <v>112</v>
@@ -2267,7 +2267,7 @@
         <v>16</v>
       </c>
       <c r="F25" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G25" s="19" t="s">
         <v>112</v>
@@ -2313,7 +2313,7 @@
         <v>17</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G27" s="19" t="s">
         <v>112</v>
@@ -2359,7 +2359,7 @@
         <v>16</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G29" s="19" t="s">
         <v>112</v>
@@ -2382,7 +2382,7 @@
         <v>16</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G30" s="19" t="s">
         <v>112</v>
@@ -2405,7 +2405,7 @@
         <v>16</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G31" s="19" t="s">
         <v>112</v>
@@ -2428,7 +2428,7 @@
         <v>16</v>
       </c>
       <c r="F32" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G32" s="19" t="s">
         <v>112</v>
@@ -2451,7 +2451,7 @@
         <v>16</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G33" s="19" t="s">
         <v>112</v>
